--- a/conferencias.xlsx
+++ b/conferencias.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>nombre</t>
   </si>
@@ -207,6 +207,39 @@
   </si>
   <si>
     <t>INGENIERIA AMBIENTAL</t>
+  </si>
+  <si>
+    <t>ingenieria industrial</t>
+  </si>
+  <si>
+    <t>proyectando mi futuro</t>
+  </si>
+  <si>
+    <t>requerimentos legales en seguridad salud y medio ambiente</t>
+  </si>
+  <si>
+    <t>espectativa de los egresados y espectativas de los empresarios</t>
+  </si>
+  <si>
+    <t>importancia de la seguridad en las empresas</t>
+  </si>
+  <si>
+    <t>manufactura esbelta y seis sigma</t>
+  </si>
+  <si>
+    <t>Miguel Angel Garcia Flores</t>
+  </si>
+  <si>
+    <t>Ismael Salcedo Gomez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Miguel Cervantes </t>
+  </si>
+  <si>
+    <t>Jose Miguel Brambilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hector Sergio Hernandez Gonzalez </t>
   </si>
 </sst>
 </file>
@@ -214,10 +247,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="171" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +268,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -286,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -297,12 +338,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -312,6 +353,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,6 +1210,106 @@
         <v>43399</v>
       </c>
     </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F29" s="5">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F30" s="5">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="F31" s="5">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F32" s="11">
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="F33" s="11">
+        <v>43399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
